--- a/src/Book1.xlsx
+++ b/src/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agamjolly/Desktop/eecs70/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agamjolly/Desktop/cs70-mt1/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96719E6-C4F3-0F40-A978-AE9D4B995266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B32ECE1-A343-734D-BF7C-BA86F96665B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44320" yWindow="2860" windowWidth="28040" windowHeight="17440" xr2:uid="{C01BE436-8168-CF45-AE27-C042D894A1E5}"/>
+    <workbookView xWindow="44320" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{C01BE436-8168-CF45-AE27-C042D894A1E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF20129-C1BA-1E43-A9B7-D791D933E69B}">
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:A66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -409,232 +409,327 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1">
-        <v>28</v>
+        <v>38.75</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1">
-        <v>44.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1">
-        <v>63.25</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1">
-        <v>61</v>
+        <v>52.25</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1">
-        <v>57.25</v>
+        <v>63.25</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1">
-        <v>38.25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1">
-        <v>71.75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1">
-        <v>42</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1">
-        <v>55</v>
+        <v>63.25</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1">
-        <v>68.75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1">
-        <v>43.25</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1">
-        <v>19.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1">
-        <v>32.5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1">
-        <v>49.75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1">
-        <v>56.5</v>
+        <v>50.75</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1">
-        <v>58.25</v>
+        <v>47.25</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1">
-        <v>51</v>
+        <v>57.25</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1">
-        <v>38.75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1">
-        <v>33.5</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>63.25</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1">
-        <v>51.5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1">
-        <v>28.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1">
-        <v>59.25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1">
-        <v>65.25</v>
+        <v>57.25</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1">
-        <v>57.5</v>
+        <v>38.25</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1">
-        <v>57</v>
+        <v>71.75</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1">
-        <v>42.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1">
-        <v>54.5</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1">
-        <v>38.75</v>
+        <v>43.25</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1">
-        <v>58.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1">
-        <v>37</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1">
-        <v>46.5</v>
+        <v>49.75</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1">
-        <v>62</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1">
-        <v>67</v>
+        <v>58.25</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1">
-        <v>27.5</v>
+        <v>38.75</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1">
-        <v>88.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1">
-        <v>44.75</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1">
-        <v>15</v>
+        <v>59.25</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1">
-        <v>60.5</v>
+        <v>65.25</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1">
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1">
+        <v>44.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1">
         <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/src/Book1.xlsx
+++ b/src/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agamjolly/Desktop/cs70-mt1/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agamjolly/Desktop/debug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B32ECE1-A343-734D-BF7C-BA86F96665B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2C9C2E-A379-F646-8509-0505485AF504}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44320" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{C01BE436-8168-CF45-AE27-C042D894A1E5}"/>
   </bookViews>
@@ -33,9 +33,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>marks</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Worst course staff ever</t>
+  </si>
+  <si>
+    <t>Fuck the course staff dude, absolute pieces of trash.</t>
+  </si>
+  <si>
+    <t>No, but I really wish they brought back the p/np CS70 policy and opt in with eecs16a and eecs16b.</t>
+  </si>
+  <si>
+    <t>I’m praying they curve.</t>
+  </si>
+  <si>
+    <t>please share the link to the result of this file</t>
+  </si>
+  <si>
+    <t>Office hours suck</t>
+  </si>
+  <si>
+    <t>They’re doing the best they can. I think CS70 during summer is just rough</t>
+  </si>
+  <si>
+    <t>Fuck em</t>
+  </si>
+  <si>
+    <t>Amin’s lectures have been a little rough- edged but Yining was good and my TA is solid.</t>
+  </si>
+  <si>
+    <t>bruh</t>
+  </si>
+  <si>
+    <t>I liked the course until the mt lol</t>
+  </si>
+  <si>
+    <t>A little unreasonable sometimes, but honestly objectively speaking they're doing the best they can to accommodate 600-700 students and it's difficult to make everyone happy so I can understand :( I really do wish they can be more transparent about things though</t>
+  </si>
+  <si>
+    <t>Awesome!</t>
+  </si>
+  <si>
+    <t>Course staff is doing well in teaching us the content, but logistically and how the test was administered was horrendous.</t>
+  </si>
+  <si>
+    <t>They're doing pretty well given the covid situation, but the response could be better.</t>
+  </si>
+  <si>
+    <t>It's running okay.</t>
+  </si>
+  <si>
+    <t>i wanna cry</t>
+  </si>
+  <si>
+    <t>They’re doing their best!!!</t>
   </si>
 </sst>
 </file>
@@ -394,343 +451,501 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF20129-C1BA-1E43-A9B7-D791D933E69B}">
-  <dimension ref="A1:A66"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>38.75</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>52.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>63.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>63.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>37.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>50.75</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>47.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>57.25</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>44.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>63.25</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>57.25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>38.25</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>71.75</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>68.75</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1">
         <v>43.25</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1">
         <v>32.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>49.75</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="1">
         <v>56.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>58.25</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>38.75</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="1">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="1">
         <v>51.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="1">
         <v>59.25</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>65.25</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="1">
         <v>57.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>42.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="1">
         <v>54.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>38.75</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="1">
         <v>58.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="1">
         <v>46.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="1">
         <v>44.75</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="1">
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+        <v>44</v>
+      </c>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+        <v>53.75</v>
+      </c>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
-        <v>44</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
+        <v>43.25</v>
+      </c>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
+        <v>15</v>
+      </c>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
+        <v>51</v>
+      </c>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>66.5</v>
+      </c>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
+        <v>41</v>
+      </c>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>32.25</v>
+      </c>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
+        <v>50</v>
+      </c>
+      <c r="B75" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
